--- a/Link/Link(研究会用).xlsx
+++ b/Link/Link(研究会用).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\shiga_u_gpts\Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2A206-E853-411C-BEBF-CD5922AB19D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7859967-1436-4753-800A-D0CB193BFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="19290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト(研究会用)" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Link</t>
   </si>
@@ -220,6 +220,25 @@
   </si>
   <si>
     <t>image/85a5083c-16d4-4299-9297-3e9e344f6c86.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://chatgpt.com/g/g-68229cf1f46881919ffc4809812d86c5-zi-he-da-xue-kiyariaxiang-tan-shi-li-gen-chuan-shi</t>
+  </si>
+  <si>
+    <t>image/ChatGPT Image 2025年5月13日 10_27_11.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀大学のキャリア相談員。利根川式の叱咤激励で、迷える者に進むべき道を示す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瀬川　正之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀大学キャリア相談室・利根川式</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -227,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +259,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,13 +287,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -639,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E3D62-E5FD-4314-AB65-00FE2470F177}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -839,6 +869,23 @@
       </c>
       <c r="E11" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
